--- a/REDES - INVESTIGACIÓN DE OPERACIONES.xlsx
+++ b/REDES - INVESTIGACIÓN DE OPERACIONES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafae\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafae\OneDrive\Documentos\Tareas de Universidad\INVESTIGACIÓN DE OPERACIONES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7519C-BBAC-4EE4-A433-B63CD467F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC78B58D-A83B-47B6-A731-6EFB5C31EC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2840CB70-24DC-4614-A6C9-6CD4A1EC9AFD}"/>
   </bookViews>
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +173,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -278,7 +284,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +307,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,8 +319,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -524,7 +533,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1577841" y="61430"/>
+          <a:off x="1577332" y="61430"/>
           <a:ext cx="720000" cy="3064640"/>
           <a:chOff x="2790092" y="379522"/>
           <a:chExt cx="720000" cy="3064640"/>
@@ -1366,8 +1375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5357288" y="61430"/>
-          <a:ext cx="716907" cy="3064640"/>
+          <a:off x="5357797" y="61430"/>
+          <a:ext cx="716398" cy="3064640"/>
           <a:chOff x="5367802" y="61430"/>
           <a:chExt cx="720000" cy="3064640"/>
         </a:xfrm>
@@ -4619,8 +4628,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4690,104 +4699,104 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <f>C4+D4+E4</f>
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="b">
-        <f>E6&lt;=8</f>
-        <v>0</v>
+      <c r="F6" s="4" t="str">
+        <f>IF(E6&lt;=8,(E7),("No es posible."))</f>
+        <v>No es posible.</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
         <f>F4+G4+H4</f>
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="b">
-        <f>E7&lt;=6</f>
-        <v>0</v>
+      <c r="F7" s="4" t="str">
+        <f>IF(E7&lt;=6,(E7),("No es posible."))</f>
+        <v>No es posible.</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <f>C4+F4</f>
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="b">
-        <f>E8&gt;=10</f>
-        <v>0</v>
+      <c r="F8" s="4" t="str">
+        <f>IF(E8&gt;=10,(E8),("No es posible."))</f>
+        <v>No es posible.</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
         <f>D4+G4</f>
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="b">
-        <f>E9&gt;=5</f>
-        <v>1</v>
+      <c r="F9" s="4">
+        <f>IF(E9&gt;=5,(E9),("No es posible."))</f>
+        <v>5</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <f>E4+H4</f>
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="b">
-        <f>E10&gt;=6</f>
-        <v>1</v>
+      <c r="F10" s="4">
+        <f>IF(E10&gt;=6,(E10),("No es posible."))</f>
+        <v>6</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4801,34 +4810,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G6:H11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:E10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF60000"/>
-        <color rgb="FF21FF2C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF21FF2C"/>
-        <color rgb="FFF60000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
